--- a/2_Formulas_Functions/2_Functions_Intro.xlsx
+++ b/2_Formulas_Functions/2_Functions_Intro.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\2_Functions_Intro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88C0353-A8F0-416A-BF80-5B7ABDD2DC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CA16E7-9C14-41A0-8922-269F171AEF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-102" yWindow="1596" windowWidth="18336" windowHeight="10266" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Original" sheetId="4" r:id="rId1"/>
+    <sheet name="Data" sheetId="4" r:id="rId1"/>
     <sheet name="Final" sheetId="7" r:id="rId2"/>
     <sheet name="Errors" sheetId="8" r:id="rId3"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1015,30 +1015,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43874593-2EEC-48E4-98E0-7C4B9DC6F43F}">
   <dimension ref="B1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="1"/>
-    <col min="8" max="9" width="11.06640625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.19921875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.06640625" style="1"/>
-    <col min="14" max="14" width="10.3984375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="9" width="11" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="10.42578125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:15" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -1622,12 +1622,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
@@ -1652,36 +1652,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D423364-12D3-4C3A-8A6B-C3645EBFE927}">
   <dimension ref="B1:S17"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="11.06640625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.19921875" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.06640625" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1328125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.86328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.06640625" style="1"/>
-    <col min="18" max="18" width="14.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="11" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:19" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:19" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1770,11 +1770,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="26" t="b">
-        <f>$S$3&lt;=C3</f>
+        <f t="shared" ref="L3:L12" si="0">$S$3&lt;=C3</f>
         <v>1</v>
       </c>
       <c r="M3" s="26" t="b">
-        <f>$G3&gt;=$S$4</f>
+        <f t="shared" ref="M3:M12" si="1">$G3&gt;=$S$4</f>
         <v>1</v>
       </c>
       <c r="N3" s="26">
@@ -1796,7 +1796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1810,47 +1810,47 @@
         <v>12000</v>
       </c>
       <c r="F4" s="30">
-        <f t="shared" ref="F4:F12" si="0">C4</f>
+        <f t="shared" ref="F4:F12" si="2">C4</f>
         <v>4</v>
       </c>
       <c r="G4" s="26">
-        <f t="shared" ref="G4:G12" si="1">D4+E4</f>
+        <f t="shared" ref="G4:G12" si="3">D4+E4</f>
         <v>147000</v>
       </c>
       <c r="H4" s="27">
-        <f t="shared" ref="H4:H12" si="2">E4/D4</f>
+        <f t="shared" ref="H4:H12" si="4">E4/D4</f>
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="I4" s="28">
-        <f t="shared" ref="I4:I12" si="3">D4+D4*H4</f>
+        <f t="shared" ref="I4:I12" si="5">D4+D4*H4</f>
         <v>147000</v>
       </c>
       <c r="J4" s="26" t="b">
-        <f t="shared" ref="J4:J12" si="4">G4=I4</f>
+        <f t="shared" ref="J4:J12" si="6">G4=I4</f>
         <v>1</v>
       </c>
       <c r="K4" s="26" t="b">
-        <f t="shared" ref="K4:K12" si="5">E4&gt;D4</f>
+        <f t="shared" ref="K4:K12" si="7">E4&gt;D4</f>
         <v>0</v>
       </c>
       <c r="L4" s="26" t="b">
-        <f>$S$3&lt;=C4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="26" t="b">
-        <f>$G4&gt;=$S$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N4" s="26">
-        <f t="shared" ref="N4:N12" si="6">L4*M4</f>
+        <f t="shared" ref="N4:N12" si="8">L4*M4</f>
         <v>0</v>
       </c>
       <c r="O4" s="26" t="b">
-        <f t="shared" ref="O4:O12" si="7">L4*M4=1</f>
+        <f t="shared" ref="O4:O12" si="9">L4*M4=1</f>
         <v>0</v>
       </c>
       <c r="P4" s="26" t="b">
-        <f t="shared" ref="P4:P12" si="8">AND(L4,M4)</f>
+        <f t="shared" ref="P4:P12" si="10">AND(L4,M4)</f>
         <v>0</v>
       </c>
       <c r="R4" s="16" t="s">
@@ -1860,7 +1860,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1874,51 +1874,51 @@
         <v>5000</v>
       </c>
       <c r="F5" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G5" s="26">
-        <f t="shared" si="1"/>
-        <v>80000</v>
-      </c>
-      <c r="H5" s="27">
-        <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="I5" s="28">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
+      <c r="H5" s="27">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I5" s="28">
+        <f t="shared" si="5"/>
+        <v>80000</v>
+      </c>
       <c r="J5" s="26" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K5" s="26" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L5" s="26" t="b">
-        <f>$S$3&lt;=C5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="26" t="b">
-        <f>$G5&gt;=$S$4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O5" s="26" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P5" s="26" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1932,51 +1932,51 @@
         <v>8000</v>
       </c>
       <c r="F6" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G6" s="26">
-        <f t="shared" si="1"/>
-        <v>118000</v>
-      </c>
-      <c r="H6" s="27">
-        <f t="shared" si="2"/>
-        <v>7.2727272727272724E-2</v>
-      </c>
-      <c r="I6" s="28">
         <f t="shared" si="3"/>
         <v>118000</v>
       </c>
+      <c r="H6" s="27">
+        <f t="shared" si="4"/>
+        <v>7.2727272727272724E-2</v>
+      </c>
+      <c r="I6" s="28">
+        <f t="shared" si="5"/>
+        <v>118000</v>
+      </c>
       <c r="J6" s="26" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K6" s="26" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L6" s="26" t="b">
-        <f>$S$3&lt;=C6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M6" s="26" t="b">
-        <f>$G6&gt;=$S$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N6" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O6" s="26" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P6" s="26" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1990,51 +1990,51 @@
         <v>11000</v>
       </c>
       <c r="F7" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G7" s="26">
-        <f t="shared" si="1"/>
-        <v>136000</v>
-      </c>
-      <c r="H7" s="27">
-        <f t="shared" si="2"/>
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="I7" s="28">
         <f t="shared" si="3"/>
         <v>136000</v>
       </c>
+      <c r="H7" s="27">
+        <f t="shared" si="4"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I7" s="28">
+        <f t="shared" si="5"/>
+        <v>136000</v>
+      </c>
       <c r="J7" s="26" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K7" s="26" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L7" s="26" t="b">
-        <f>$S$3&lt;=C7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="26" t="b">
-        <f>$G7&gt;=$S$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N7" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O7" s="26" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P7" s="26" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2048,51 +2048,51 @@
         <v>7000</v>
       </c>
       <c r="F8" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G8" s="26">
-        <f t="shared" si="1"/>
-        <v>97000</v>
-      </c>
-      <c r="H8" s="27">
-        <f t="shared" si="2"/>
-        <v>7.7777777777777779E-2</v>
-      </c>
-      <c r="I8" s="28">
         <f t="shared" si="3"/>
         <v>97000</v>
       </c>
+      <c r="H8" s="27">
+        <f t="shared" si="4"/>
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="I8" s="28">
+        <f t="shared" si="5"/>
+        <v>97000</v>
+      </c>
       <c r="J8" s="26" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K8" s="26" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L8" s="26" t="b">
-        <f>$S$3&lt;=C8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M8" s="26" t="b">
-        <f>$G8&gt;=$S$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N8" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O8" s="26" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P8" s="26" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2106,51 +2106,51 @@
         <v>15000</v>
       </c>
       <c r="F9" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G9" s="26">
-        <f t="shared" si="1"/>
-        <v>165000</v>
-      </c>
-      <c r="H9" s="27">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="28">
         <f t="shared" si="3"/>
         <v>165000</v>
       </c>
+      <c r="H9" s="27">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="28">
+        <f t="shared" si="5"/>
+        <v>165000</v>
+      </c>
       <c r="J9" s="26" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K9" s="26" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L9" s="26" t="b">
-        <f>$S$3&lt;=C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M9" s="26" t="b">
-        <f>$G9&gt;=$S$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N9" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O9" s="26" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P9" s="26" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2164,51 +2164,51 @@
         <v>13000</v>
       </c>
       <c r="F10" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G10" s="26">
-        <f t="shared" si="1"/>
-        <v>143000</v>
-      </c>
-      <c r="H10" s="27">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="28">
         <f t="shared" si="3"/>
         <v>143000</v>
       </c>
+      <c r="H10" s="27">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="28">
+        <f t="shared" si="5"/>
+        <v>143000</v>
+      </c>
       <c r="J10" s="26" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K10" s="26" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L10" s="26" t="b">
-        <f>$S$3&lt;=C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M10" s="26" t="b">
-        <f>$G10&gt;=$S$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N10" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O10" s="26" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P10" s="26" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -2222,51 +2222,51 @@
         <v>14000</v>
       </c>
       <c r="F11" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G11" s="26">
-        <f t="shared" si="1"/>
-        <v>154000</v>
-      </c>
-      <c r="H11" s="27">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="28">
         <f t="shared" si="3"/>
         <v>154000</v>
       </c>
+      <c r="H11" s="27">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="28">
+        <f t="shared" si="5"/>
+        <v>154000</v>
+      </c>
       <c r="J11" s="26" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K11" s="26" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L11" s="26" t="b">
-        <f>$S$3&lt;=C11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11" s="26" t="b">
-        <f>$G11&gt;=$S$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N11" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O11" s="26" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P11" s="26" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
         <v>9</v>
       </c>
@@ -2280,51 +2280,51 @@
         <v>9000</v>
       </c>
       <c r="F12" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G12" s="26">
-        <f t="shared" si="1"/>
-        <v>124000</v>
-      </c>
-      <c r="H12" s="27">
-        <f t="shared" si="2"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-      <c r="I12" s="28">
         <f t="shared" si="3"/>
         <v>124000</v>
       </c>
+      <c r="H12" s="27">
+        <f t="shared" si="4"/>
+        <v>7.8260869565217397E-2</v>
+      </c>
+      <c r="I12" s="28">
+        <f t="shared" si="5"/>
+        <v>124000</v>
+      </c>
       <c r="J12" s="26" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K12" s="26" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L12" s="26" t="b">
-        <f>$S$3&lt;=C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M12" s="26" t="b">
-        <f>$G12&gt;=$S$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N12" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O12" s="26" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P12" s="26" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="s">
         <v>28</v>
       </c>
@@ -2333,15 +2333,15 @@
         <v>5.3</v>
       </c>
       <c r="D13" s="23">
-        <f t="shared" ref="D13:E13" si="9">(D3+D4+D5+D6+D7+D8+D9+D10+D11+D12)/10</f>
+        <f t="shared" ref="D13:E13" si="11">(D3+D4+D5+D6+D7+D8+D9+D10+D11+D12)/10</f>
         <v>119000</v>
       </c>
       <c r="E13" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10400</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="35" t="s">
         <v>29</v>
       </c>
@@ -2350,19 +2350,19 @@
         <v>5.3</v>
       </c>
       <c r="D14" s="24">
-        <f t="shared" ref="D14:F14" si="10">AVERAGE(D3:D12)</f>
+        <f t="shared" ref="D14:F14" si="12">AVERAGE(D3:D12)</f>
         <v>119000</v>
       </c>
       <c r="E14" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10400</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.3</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B15" s="33" t="s">
         <v>31</v>
       </c>
@@ -2371,15 +2371,15 @@
         <v>10</v>
       </c>
       <c r="D15" s="23">
-        <f t="shared" ref="D15:E15" si="11">COUNT(D3:D12)</f>
+        <f t="shared" ref="D15:E15" si="13">COUNT(D3:D12)</f>
         <v>10</v>
       </c>
       <c r="E15" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
         <v>32</v>
       </c>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="E16" s="38"/>
     </row>
-    <row r="17" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>32</v>
       </c>
@@ -2420,14 +2420,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.3984375" customWidth="1"/>
-    <col min="3" max="3" width="31.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="41" t="s">
         <v>33</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
@@ -2450,7 +2450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="e">
         <f>A4 + "text"</f>
         <v>#VALUE!</v>
@@ -2462,7 +2462,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2474,7 +2474,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="e" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">COUNTT(A3:A9)</f>
         <v>#NAME?</v>
@@ -2486,7 +2486,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="e">
         <f>VLOOKUP("Value", A1:A10, 2, FALSE)</f>
         <v>#N/A</v>
@@ -2498,7 +2498,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="e">
         <f>SQRT(-1)</f>
         <v>#NUM!</v>
@@ -2510,7 +2510,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="42" t="e">
         <f>SUM(A1:A10 C1:C10)</f>
         <v>#NULL!</v>

--- a/2_Formulas_Functions/2_Functions_Intro.xlsx
+++ b/2_Formulas_Functions/2_Functions_Intro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CA16E7-9C14-41A0-8922-269F171AEF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDE1A3F-5916-4E7C-BB56-FDF9480CEC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
+    <workbookView xWindow="0" yWindow="1434" windowWidth="18348" windowHeight="10350" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>Total Salary (&gt;=)</t>
-  </si>
-  <si>
-    <t>Meets Both</t>
   </si>
   <si>
     <t>Job Goals:</t>
@@ -1013,32 +1010,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43874593-2EEC-48E4-98E0-7C4B9DC6F43F}">
-  <dimension ref="B1:O16"/>
+  <dimension ref="B1:P16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
+    <col min="1" max="1" width="5.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.578125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.26171875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26171875" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.15625" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="10.42578125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="10.41796875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5234375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.89453125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:16" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1076,13 +1075,16 @@
         <v>20</v>
       </c>
       <c r="N2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1135,8 +1137,9 @@
         <f>L3*M3=1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="26"/>
+    </row>
+    <row r="4" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1189,8 +1192,9 @@
         <f t="shared" ref="O4:O12" si="9">L4*M4=1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="26"/>
+    </row>
+    <row r="5" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1243,8 +1247,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P5" s="26"/>
+    </row>
+    <row r="6" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1297,8 +1302,9 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P6" s="26"/>
+    </row>
+    <row r="7" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1351,8 +1357,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P7" s="26"/>
+    </row>
+    <row r="8" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1405,8 +1412,9 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P8" s="26"/>
+    </row>
+    <row r="9" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1459,8 +1467,9 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P9" s="26"/>
+    </row>
+    <row r="10" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1513,8 +1522,9 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P10" s="26"/>
+    </row>
+    <row r="11" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1567,8 +1577,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P11" s="26"/>
+    </row>
+    <row r="12" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -1621,13 +1632,14 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P12" s="26"/>
+    </row>
+    <row r="14" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
@@ -1635,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
@@ -1652,36 +1664,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D423364-12D3-4C3A-8A6B-C3645EBFE927}">
   <dimension ref="B1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P2" sqref="O2:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.578125" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.26171875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26171875" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.15625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.41796875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.15625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.83984375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
     <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:19" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1719,20 +1731,20 @@
         <v>20</v>
       </c>
       <c r="N2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>27</v>
-      </c>
       <c r="R2" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1796,7 +1808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1860,7 +1872,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1918,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1976,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2034,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2092,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2150,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2208,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -2266,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="19" t="s">
         <v>9</v>
       </c>
@@ -2324,9 +2336,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="23">
         <f>(C3+C4+C5+C6+C7+C8+C9+C10+C11+C12)/10</f>
@@ -2341,9 +2353,9 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="24">
         <f>AVERAGE(C3:C12)</f>
@@ -2362,9 +2374,9 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="23">
         <f>COUNT(C3:C12)</f>
@@ -2379,9 +2391,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="22">
         <f>COUNTIF($C$3:$C$12, "&lt;=5")</f>
@@ -2393,9 +2405,9 @@
       </c>
       <c r="E16" s="38"/>
     </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="39">
         <f>COUNTIF($C$3:$C$12, "&lt;=" &amp; S3)</f>
@@ -2416,110 +2428,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EBE098-CD97-45AE-AE7E-86DF2D94E426}">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1015625" customWidth="1"/>
+    <col min="2" max="2" width="13.41796875" customWidth="1"/>
+    <col min="3" max="3" width="31.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="42" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="42" t="e">
         <f>A4 + "text"</f>
         <v>#VALUE!</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="12" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="12" t="e" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">COUNTT(A3:A9)</f>
         <v>#NAME?</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="42" t="e">
         <f>VLOOKUP("Value", A1:A10, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="42" t="e">
         <f>SQRT(-1)</f>
         <v>#NUM!</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="42" t="e">
         <f>SUM(A1:A10 C1:C10)</f>
         <v>#NULL!</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/2_Formulas_Functions/2_Functions_Intro.xlsx
+++ b/2_Formulas_Functions/2_Functions_Intro.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDE1A3F-5916-4E7C-BB56-FDF9480CEC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF50AE8-6F59-4DF5-B44C-2445C4C088D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1434" windowWidth="18348" windowHeight="10350" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
+    <workbookView xWindow="-42890" yWindow="-19270" windowWidth="18350" windowHeight="10350" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="4" r:id="rId1"/>
+    <sheet name="Data" sheetId="9" r:id="rId1"/>
     <sheet name="Final" sheetId="7" r:id="rId2"/>
     <sheet name="Errors" sheetId="8" r:id="rId3"/>
   </sheets>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -569,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,23 +590,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1009,663 +997,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43874593-2EEC-48E4-98E0-7C4B9DC6F43F}">
-  <dimension ref="B1:P16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DE2224-2E95-4FCC-A032-AA541E0AE3D4}">
+  <dimension ref="B1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="5.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.41796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26171875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.578125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.15625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="10.41796875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5234375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.89453125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:16" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6">
-        <v>120000</v>
-      </c>
-      <c r="E3" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F3" s="1">
-        <f>C3</f>
-        <v>5</v>
-      </c>
-      <c r="G3" s="26">
-        <f>D3+E3</f>
-        <v>130000</v>
-      </c>
-      <c r="H3" s="27">
-        <f>E3/D3</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I3" s="28">
-        <f>D3+D3*H3</f>
-        <v>130000</v>
-      </c>
-      <c r="J3" s="26" t="b">
-        <f>G3=I3</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="26" t="b">
-        <f>E3&gt;D3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="26" t="b">
-        <f>$C$15&lt;=C3</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="26" t="b">
-        <f>$G3&gt;=$C$16</f>
-        <v>1</v>
-      </c>
-      <c r="N3" s="26">
-        <f>L3*M3</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="26" t="b">
-        <f>L3*M3=1</f>
-        <v>1</v>
-      </c>
-      <c r="P3" s="26"/>
-    </row>
-    <row r="4" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6">
-        <v>135000</v>
-      </c>
-      <c r="E4" s="7">
-        <v>12000</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:F12" si="0">C4</f>
-        <v>4</v>
-      </c>
-      <c r="G4" s="26">
-        <f t="shared" ref="G4:G12" si="1">D4+E4</f>
-        <v>147000</v>
-      </c>
-      <c r="H4" s="27">
-        <f t="shared" ref="H4:H12" si="2">E4/D4</f>
-        <v>8.8888888888888892E-2</v>
-      </c>
-      <c r="I4" s="28">
-        <f t="shared" ref="I4:I12" si="3">D4+D4*H4</f>
-        <v>147000</v>
-      </c>
-      <c r="J4" s="26" t="b">
-        <f t="shared" ref="J4:J12" si="4">G4=I4</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="26" t="b">
-        <f t="shared" ref="K4:K12" si="5">E4&gt;D4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="26" t="b">
-        <f t="shared" ref="L4:L12" si="6">$C$15&lt;=C4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="26" t="b">
-        <f t="shared" ref="M4:M12" si="7">$G4&gt;=$C$16</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="26">
-        <f t="shared" ref="N4:N12" si="8">L4*M4</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="26" t="b">
-        <f t="shared" ref="O4:O12" si="9">L4*M4=1</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="26"/>
-    </row>
-    <row r="5" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>75000</v>
-      </c>
-      <c r="E5" s="7">
-        <v>5000</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G5" s="26">
-        <f t="shared" si="1"/>
-        <v>80000</v>
-      </c>
-      <c r="H5" s="27">
-        <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="I5" s="28">
-        <f t="shared" si="3"/>
-        <v>80000</v>
-      </c>
-      <c r="J5" s="26" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="26" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="26" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="26" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="26" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="26"/>
-    </row>
-    <row r="6" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6">
-        <v>110000</v>
-      </c>
-      <c r="E6" s="7">
-        <v>8000</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G6" s="26">
-        <f t="shared" si="1"/>
-        <v>118000</v>
-      </c>
-      <c r="H6" s="27">
-        <f t="shared" si="2"/>
-        <v>7.2727272727272724E-2</v>
-      </c>
-      <c r="I6" s="28">
-        <f t="shared" si="3"/>
-        <v>118000</v>
-      </c>
-      <c r="J6" s="26" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="26" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="26" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M6" s="26" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N6" s="26">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O6" s="26" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P6" s="26"/>
-    </row>
-    <row r="7" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6">
-        <v>125000</v>
-      </c>
-      <c r="E7" s="7">
-        <v>11000</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G7" s="26">
-        <f t="shared" si="1"/>
-        <v>136000</v>
-      </c>
-      <c r="H7" s="27">
-        <f t="shared" si="2"/>
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="I7" s="28">
-        <f t="shared" si="3"/>
-        <v>136000</v>
-      </c>
-      <c r="J7" s="26" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K7" s="26" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="26" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="26" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N7" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="26" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="26"/>
-    </row>
-    <row r="8" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6">
-        <v>90000</v>
-      </c>
-      <c r="E8" s="7">
-        <v>7000</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G8" s="26">
-        <f t="shared" si="1"/>
-        <v>97000</v>
-      </c>
-      <c r="H8" s="27">
-        <f t="shared" si="2"/>
-        <v>7.7777777777777779E-2</v>
-      </c>
-      <c r="I8" s="28">
-        <f t="shared" si="3"/>
-        <v>97000</v>
-      </c>
-      <c r="J8" s="26" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K8" s="26" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="26" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M8" s="26" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N8" s="26">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="26" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P8" s="26"/>
-    </row>
-    <row r="9" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6">
-        <v>150000</v>
-      </c>
-      <c r="E9" s="7">
-        <v>15000</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G9" s="26">
-        <f t="shared" si="1"/>
-        <v>165000</v>
-      </c>
-      <c r="H9" s="27">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="28">
-        <f t="shared" si="3"/>
-        <v>165000</v>
-      </c>
-      <c r="J9" s="26" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="26" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="26" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M9" s="26" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N9" s="26">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O9" s="26" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P9" s="26"/>
-    </row>
-    <row r="10" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6">
-        <v>130000</v>
-      </c>
-      <c r="E10" s="7">
-        <v>13000</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G10" s="26">
-        <f t="shared" si="1"/>
-        <v>143000</v>
-      </c>
-      <c r="H10" s="27">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="28">
-        <f t="shared" si="3"/>
-        <v>143000</v>
-      </c>
-      <c r="J10" s="26" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="26" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="26" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M10" s="26" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N10" s="26">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="26" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P10" s="26"/>
-    </row>
-    <row r="11" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6">
-        <v>140000</v>
-      </c>
-      <c r="E11" s="7">
-        <v>14000</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G11" s="26">
-        <f t="shared" si="1"/>
-        <v>154000</v>
-      </c>
-      <c r="H11" s="27">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="28">
-        <f t="shared" si="3"/>
-        <v>154000</v>
-      </c>
-      <c r="J11" s="26" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="26" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="26" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="26" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N11" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="26" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="26"/>
-    </row>
-    <row r="12" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9">
-        <v>5</v>
-      </c>
-      <c r="D12" s="9">
-        <v>115000</v>
-      </c>
-      <c r="E12" s="10">
-        <v>9000</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G12" s="26">
-        <f t="shared" si="1"/>
-        <v>124000</v>
-      </c>
-      <c r="H12" s="27">
-        <f t="shared" si="2"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-      <c r="I12" s="28">
-        <f t="shared" si="3"/>
-        <v>124000</v>
-      </c>
-      <c r="J12" s="26" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="26" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="26" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M12" s="26" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="26">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="26" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P12" s="26"/>
-    </row>
-    <row r="14" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="17">
-        <v>90000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D423364-12D3-4C3A-8A6B-C3645EBFE927}">
-  <dimension ref="B1:S17"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P2" sqref="O2:P2"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1691,9 +1027,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="2:19" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="2:19" s="8" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1706,40 +1042,40 @@
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="14" t="s">
         <v>24</v>
       </c>
       <c r="S2" s="1"/>
@@ -1757,54 +1093,51 @@
       <c r="E3" s="7">
         <v>10000</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="26">
         <f>C3</f>
         <v>5</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="22">
         <f>D3+E3</f>
         <v>130000</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="23">
         <f>E3/D3</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="24">
         <f>D3+D3*H3</f>
         <v>130000</v>
       </c>
-      <c r="J3" s="26" t="b">
+      <c r="J3" s="22" t="b">
         <f>G3=I3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="26" t="b">
+      <c r="K3" s="22" t="b">
         <f>E3&gt;D3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="26" t="b">
+      <c r="L3" s="22" t="b">
         <f t="shared" ref="L3:L12" si="0">$S$3&lt;=C3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="26" t="b">
+      <c r="M3" s="22" t="b">
         <f t="shared" ref="M3:M12" si="1">$G3&gt;=$S$4</f>
         <v>1</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="22">
         <f>L3*M3</f>
         <v>1</v>
       </c>
-      <c r="O3" s="26" t="b">
+      <c r="O3" s="22" t="b">
         <f>L3*M3=1</f>
         <v>1</v>
       </c>
-      <c r="P3" s="26" t="b">
-        <f>AND(L3,M3)</f>
-        <v>1</v>
-      </c>
-      <c r="R3" s="14" t="s">
+      <c r="P3" s="22"/>
+      <c r="R3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="11">
         <v>5</v>
       </c>
     </row>
@@ -1821,54 +1154,51 @@
       <c r="E4" s="7">
         <v>12000</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="26">
         <f t="shared" ref="F4:F12" si="2">C4</f>
         <v>4</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="22">
         <f t="shared" ref="G4:G12" si="3">D4+E4</f>
         <v>147000</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="23">
         <f t="shared" ref="H4:H12" si="4">E4/D4</f>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="24">
         <f t="shared" ref="I4:I12" si="5">D4+D4*H4</f>
         <v>147000</v>
       </c>
-      <c r="J4" s="26" t="b">
+      <c r="J4" s="22" t="b">
         <f t="shared" ref="J4:J12" si="6">G4=I4</f>
         <v>1</v>
       </c>
-      <c r="K4" s="26" t="b">
+      <c r="K4" s="22" t="b">
         <f t="shared" ref="K4:K12" si="7">E4&gt;D4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="26" t="b">
+      <c r="L4" s="22" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="26" t="b">
+      <c r="M4" s="22" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="22">
         <f t="shared" ref="N4:N12" si="8">L4*M4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="26" t="b">
+      <c r="O4" s="22" t="b">
         <f t="shared" ref="O4:O12" si="9">L4*M4=1</f>
         <v>0</v>
       </c>
-      <c r="P4" s="26" t="b">
-        <f t="shared" ref="P4:P12" si="10">AND(L4,M4)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="16" t="s">
+      <c r="P4" s="22"/>
+      <c r="R4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="17">
+      <c r="S4" s="13">
         <v>90000</v>
       </c>
     </row>
@@ -1885,50 +1215,47 @@
       <c r="E5" s="7">
         <v>5000</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="26">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="22">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="23">
         <f t="shared" si="4"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="24">
         <f t="shared" si="5"/>
         <v>80000</v>
       </c>
-      <c r="J5" s="26" t="b">
+      <c r="J5" s="22" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K5" s="26" t="b">
+      <c r="K5" s="22" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L5" s="26" t="b">
+      <c r="L5" s="22" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="26" t="b">
+      <c r="M5" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O5" s="26" t="b">
+      <c r="O5" s="22" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P5" s="26" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="5" t="s">
@@ -1943,50 +1270,47 @@
       <c r="E6" s="7">
         <v>8000</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="26">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="22">
         <f t="shared" si="3"/>
         <v>118000</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="23">
         <f t="shared" si="4"/>
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="24">
         <f t="shared" si="5"/>
         <v>118000</v>
       </c>
-      <c r="J6" s="26" t="b">
+      <c r="J6" s="22" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K6" s="26" t="b">
+      <c r="K6" s="22" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L6" s="26" t="b">
+      <c r="L6" s="22" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M6" s="26" t="b">
+      <c r="M6" s="22" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="22">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O6" s="26" t="b">
+      <c r="O6" s="22" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P6" s="26" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="5" t="s">
@@ -2001,50 +1325,47 @@
       <c r="E7" s="7">
         <v>11000</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="26">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="22">
         <f t="shared" si="3"/>
         <v>136000</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="23">
         <f t="shared" si="4"/>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="24">
         <f t="shared" si="5"/>
         <v>136000</v>
       </c>
-      <c r="J7" s="26" t="b">
+      <c r="J7" s="22" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K7" s="26" t="b">
+      <c r="K7" s="22" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L7" s="26" t="b">
+      <c r="L7" s="22" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="26" t="b">
+      <c r="M7" s="22" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O7" s="26" t="b">
+      <c r="O7" s="22" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P7" s="26" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="5" t="s">
@@ -2059,50 +1380,47 @@
       <c r="E8" s="7">
         <v>7000</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="26">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="22">
         <f t="shared" si="3"/>
         <v>97000</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="23">
         <f t="shared" si="4"/>
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="24">
         <f t="shared" si="5"/>
         <v>97000</v>
       </c>
-      <c r="J8" s="26" t="b">
+      <c r="J8" s="22" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K8" s="26" t="b">
+      <c r="K8" s="22" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L8" s="26" t="b">
+      <c r="L8" s="22" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M8" s="26" t="b">
+      <c r="M8" s="22" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="22">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O8" s="26" t="b">
+      <c r="O8" s="22" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P8" s="26" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
+      <c r="P8" s="22"/>
     </row>
     <row r="9" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="5" t="s">
@@ -2117,50 +1435,47 @@
       <c r="E9" s="7">
         <v>15000</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="26">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="22">
         <f t="shared" si="3"/>
         <v>165000</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="23">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="24">
         <f t="shared" si="5"/>
         <v>165000</v>
       </c>
-      <c r="J9" s="26" t="b">
+      <c r="J9" s="22" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K9" s="26" t="b">
+      <c r="K9" s="22" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L9" s="26" t="b">
+      <c r="L9" s="22" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M9" s="26" t="b">
+      <c r="M9" s="22" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="22">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O9" s="26" t="b">
+      <c r="O9" s="22" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P9" s="26" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
+      <c r="P9" s="22"/>
     </row>
     <row r="10" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="5" t="s">
@@ -2175,50 +1490,47 @@
       <c r="E10" s="7">
         <v>13000</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="26">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="22">
         <f t="shared" si="3"/>
         <v>143000</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="23">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="24">
         <f t="shared" si="5"/>
         <v>143000</v>
       </c>
-      <c r="J10" s="26" t="b">
+      <c r="J10" s="22" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K10" s="26" t="b">
+      <c r="K10" s="22" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L10" s="26" t="b">
+      <c r="L10" s="22" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M10" s="26" t="b">
+      <c r="M10" s="22" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="22">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O10" s="26" t="b">
+      <c r="O10" s="22" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P10" s="26" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
+      <c r="P10" s="22"/>
     </row>
     <row r="11" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="5" t="s">
@@ -2233,139 +1545,854 @@
       <c r="E11" s="7">
         <v>14000</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="26">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="22">
         <f t="shared" si="3"/>
         <v>154000</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="23">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="24">
         <f t="shared" si="5"/>
         <v>154000</v>
       </c>
-      <c r="J11" s="26" t="b">
+      <c r="J11" s="22" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K11" s="26" t="b">
+      <c r="K11" s="22" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L11" s="26" t="b">
+      <c r="L11" s="22" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="26" t="b">
+      <c r="M11" s="22" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O11" s="26" t="b">
+      <c r="O11" s="22" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P11" s="26" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="P11" s="22"/>
     </row>
     <row r="12" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="16">
         <v>5</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>115000</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="17">
         <v>9000</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="26">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="22">
         <f t="shared" si="3"/>
         <v>124000</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="23">
         <f t="shared" si="4"/>
         <v>7.8260869565217397E-2</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="24">
         <f t="shared" si="5"/>
         <v>124000</v>
       </c>
-      <c r="J12" s="26" t="b">
+      <c r="J12" s="22" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K12" s="26" t="b">
+      <c r="K12" s="22" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L12" s="26" t="b">
+      <c r="L12" s="22" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M12" s="26" t="b">
+      <c r="M12" s="22" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="22">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O12" s="26" t="b">
+      <c r="O12" s="22" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P12" s="26" t="b">
+      <c r="P12" s="22"/>
+    </row>
+    <row r="13" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D423364-12D3-4C3A-8A6B-C3645EBFE927}">
+  <dimension ref="B1:S17"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="5.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.578125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="11" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.26171875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26171875" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.15625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.41796875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.15625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.83984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="2:19" s="8" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6">
+        <v>120000</v>
+      </c>
+      <c r="E3" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="26">
+        <f>C3</f>
+        <v>5</v>
+      </c>
+      <c r="G3" s="22">
+        <f>D3+E3</f>
+        <v>130000</v>
+      </c>
+      <c r="H3" s="23">
+        <f>E3/D3</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I3" s="24">
+        <f>D3+D3*H3</f>
+        <v>130000</v>
+      </c>
+      <c r="J3" s="22" t="b">
+        <f>G3=I3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="22" t="b">
+        <f>E3&gt;D3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="22" t="b">
+        <f t="shared" ref="L3:L12" si="0">$S$3&lt;=C3</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="22" t="b">
+        <f t="shared" ref="M3:M12" si="1">$G3&gt;=$S$4</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="22">
+        <f>L3*M3</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="22" t="b">
+        <f>L3*M3=1</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="22" t="b">
+        <f>AND(L3,M3)</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6">
+        <v>135000</v>
+      </c>
+      <c r="E4" s="7">
+        <v>12000</v>
+      </c>
+      <c r="F4" s="26">
+        <f t="shared" ref="F4:F12" si="2">C4</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" ref="G4:G12" si="3">D4+E4</f>
+        <v>147000</v>
+      </c>
+      <c r="H4" s="23">
+        <f t="shared" ref="H4:H12" si="4">E4/D4</f>
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="I4" s="24">
+        <f t="shared" ref="I4:I12" si="5">D4+D4*H4</f>
+        <v>147000</v>
+      </c>
+      <c r="J4" s="22" t="b">
+        <f t="shared" ref="J4:J12" si="6">G4=I4</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="22" t="b">
+        <f t="shared" ref="K4:K12" si="7">E4&gt;D4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="22">
+        <f t="shared" ref="N4:N12" si="8">L4*M4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="22" t="b">
+        <f t="shared" ref="O4:O12" si="9">L4*M4=1</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="22" t="b">
+        <f t="shared" ref="P4:P12" si="10">AND(L4,M4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="13">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>75000</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="3"/>
+        <v>80000</v>
+      </c>
+      <c r="H5" s="23">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I5" s="24">
+        <f t="shared" si="5"/>
+        <v>80000</v>
+      </c>
+      <c r="J5" s="22" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="22" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="22" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="22" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="22" t="b">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>110000</v>
+      </c>
+      <c r="E6" s="7">
+        <v>8000</v>
+      </c>
+      <c r="F6" s="26">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="3"/>
+        <v>118000</v>
+      </c>
+      <c r="H6" s="23">
+        <f t="shared" si="4"/>
+        <v>7.2727272727272724E-2</v>
+      </c>
+      <c r="I6" s="24">
+        <f t="shared" si="5"/>
+        <v>118000</v>
+      </c>
+      <c r="J6" s="22" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="22" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="22">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="22" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>125000</v>
+      </c>
+      <c r="E7" s="7">
+        <v>11000</v>
+      </c>
+      <c r="F7" s="26">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="3"/>
+        <v>136000</v>
+      </c>
+      <c r="H7" s="23">
+        <f t="shared" si="4"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="5"/>
+        <v>136000</v>
+      </c>
+      <c r="J7" s="22" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="22" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="22" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6">
+        <v>90000</v>
+      </c>
+      <c r="E8" s="7">
+        <v>7000</v>
+      </c>
+      <c r="F8" s="26">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="3"/>
+        <v>97000</v>
+      </c>
+      <c r="H8" s="23">
+        <f t="shared" si="4"/>
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="5"/>
+        <v>97000</v>
+      </c>
+      <c r="J8" s="22" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="22" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="22">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="22" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6">
+        <v>150000</v>
+      </c>
+      <c r="E9" s="7">
+        <v>15000</v>
+      </c>
+      <c r="F9" s="26">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="3"/>
+        <v>165000</v>
+      </c>
+      <c r="H9" s="23">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="5"/>
+        <v>165000</v>
+      </c>
+      <c r="J9" s="22" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="22" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="22">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="22" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6">
+        <v>130000</v>
+      </c>
+      <c r="E10" s="7">
+        <v>13000</v>
+      </c>
+      <c r="F10" s="26">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="3"/>
+        <v>143000</v>
+      </c>
+      <c r="H10" s="23">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="5"/>
+        <v>143000</v>
+      </c>
+      <c r="J10" s="22" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="22" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="22">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="22" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>140000</v>
+      </c>
+      <c r="E11" s="7">
+        <v>14000</v>
+      </c>
+      <c r="F11" s="26">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="3"/>
+        <v>154000</v>
+      </c>
+      <c r="H11" s="23">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="24">
+        <f t="shared" si="5"/>
+        <v>154000</v>
+      </c>
+      <c r="J11" s="22" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="22" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="22" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="16">
+        <v>5</v>
+      </c>
+      <c r="D12" s="16">
+        <v>115000</v>
+      </c>
+      <c r="E12" s="17">
+        <v>9000</v>
+      </c>
+      <c r="F12" s="26">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="3"/>
+        <v>124000</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="4"/>
+        <v>7.8260869565217397E-2</v>
+      </c>
+      <c r="I12" s="24">
+        <f t="shared" si="5"/>
+        <v>124000</v>
+      </c>
+      <c r="J12" s="22" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="22" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="22">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="22" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="22" t="b">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="19">
         <f>(C3+C4+C5+C6+C7+C8+C9+C10+C11+C12)/10</f>
         <v>5.3</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="19">
         <f t="shared" ref="D13:E13" si="11">(D3+D4+D5+D6+D7+D8+D9+D10+D11+D12)/10</f>
         <v>119000</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="30">
         <f t="shared" si="11"/>
         <v>10400</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="20">
         <f>AVERAGE(C3:C12)</f>
         <v>5.3</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="20">
         <f t="shared" ref="D14:F14" si="12">AVERAGE(D3:D12)</f>
         <v>119000</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="32">
         <f t="shared" si="12"/>
         <v>10400</v>
       </c>
@@ -2375,49 +2402,49 @@
       </c>
     </row>
     <row r="15" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="19">
         <f>COUNT(C3:C12)</f>
         <v>10</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="19">
         <f t="shared" ref="D15:E15" si="13">COUNT(D3:D12)</f>
         <v>10</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="30">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="18">
         <f>COUNTIF($C$3:$C$12, "&lt;=5")</f>
         <v>6</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="18">
         <f>COUNTIF($D$3:$D$12, "&gt;=90000")</f>
         <v>9</v>
       </c>
-      <c r="E16" s="38"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="35">
         <f>COUNTIF($C$3:$C$12, "&lt;=" &amp; S3)</f>
         <v>6</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="35">
         <f>COUNTIF($D$3:$D$12, "&gt;=" &amp; S4)</f>
         <v>9</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2441,97 +2468,97 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="42" t="e">
+      <c r="B3" s="38" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="38" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="42" t="e">
+      <c r="B4" s="38" t="e">
         <f>A4 + "text"</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="12" t="e">
+      <c r="B5" s="9" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="38" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="12" t="e" cm="1">
+      <c r="B6" s="9" t="e" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">COUNTT(A3:A9)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="42" t="e">
+      <c r="B7" s="38" t="e">
         <f>VLOOKUP("Value", A1:A10, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="42" t="e">
+      <c r="B8" s="38" t="e">
         <f>SQRT(-1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="42" t="e">
+      <c r="B9" s="38" t="e">
         <f>SUM(A1:A10 C1:C10)</f>
         <v>#NULL!</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="38" t="s">
         <v>39</v>
       </c>
     </row>
